--- a/FantaSoccer/MyModule/Bundesliga/xG_home_all_14.xlsx
+++ b/FantaSoccer/MyModule/Bundesliga/xG_home_all_14.xlsx
@@ -1095,10 +1095,10 @@
         <v>3.22891</v>
       </c>
       <c r="E14">
-        <v>6.48727</v>
+        <v>6.487270000000001</v>
       </c>
       <c r="F14">
-        <v>6.48727</v>
+        <v>6.487270000000001</v>
       </c>
       <c r="G14">
         <v>9.172499999999999</v>
@@ -1336,22 +1336,22 @@
         <v>2.59641</v>
       </c>
       <c r="G19">
-        <v>5.373889999999999</v>
+        <v>5.37389</v>
       </c>
       <c r="H19">
-        <v>5.373889999999999</v>
+        <v>5.37389</v>
       </c>
       <c r="I19">
-        <v>8.026439999999999</v>
+        <v>8.026440000000001</v>
       </c>
       <c r="J19">
-        <v>8.026439999999999</v>
+        <v>8.026440000000001</v>
       </c>
       <c r="K19">
-        <v>9.5633</v>
+        <v>9.563300000000002</v>
       </c>
       <c r="L19">
-        <v>9.5633</v>
+        <v>9.563300000000002</v>
       </c>
       <c r="M19">
         <v>12.37539</v>
